--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N2">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q2">
-        <v>13.86001104104622</v>
+        <v>19.77379418586423</v>
       </c>
       <c r="R2">
-        <v>124.740099369416</v>
+        <v>177.964147672778</v>
       </c>
       <c r="S2">
-        <v>0.008127637856308004</v>
+        <v>0.007818696874606528</v>
       </c>
       <c r="T2">
-        <v>0.008127637856308004</v>
+        <v>0.007818696874606528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N3">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q3">
-        <v>22.403687844804</v>
+        <v>29.53563508150578</v>
       </c>
       <c r="R3">
-        <v>201.633190603236</v>
+        <v>265.820715733552</v>
       </c>
       <c r="S3">
-        <v>0.01313772845556056</v>
+        <v>0.01167859721460913</v>
       </c>
       <c r="T3">
-        <v>0.01313772845556056</v>
+        <v>0.01167859721460913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,43 +664,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H4">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I4">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J4">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N4">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q4">
-        <v>574.5182836543645</v>
+        <v>934.6595602319377</v>
       </c>
       <c r="R4">
-        <v>5170.66455288928</v>
+        <v>8411.93604208744</v>
       </c>
       <c r="S4">
-        <v>0.3369028017035287</v>
+        <v>0.3695709439329927</v>
       </c>
       <c r="T4">
-        <v>0.3369028017035287</v>
+        <v>0.3695709439329927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,43 +726,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H5">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I5">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J5">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N5">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q5">
-        <v>928.6665248683199</v>
+        <v>1396.078235515662</v>
       </c>
       <c r="R5">
-        <v>8357.998723814881</v>
+        <v>12564.70411964096</v>
       </c>
       <c r="S5">
-        <v>0.5445785851867552</v>
+        <v>0.5520191236002507</v>
       </c>
       <c r="T5">
-        <v>0.5445785851867552</v>
+        <v>0.5520191236002507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H6">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I6">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J6">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N6">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q6">
-        <v>29.04841983341423</v>
+        <v>51.810529079307</v>
       </c>
       <c r="R6">
-        <v>261.435778500728</v>
+        <v>466.2947617137631</v>
       </c>
       <c r="S6">
-        <v>0.01703426036276549</v>
+        <v>0.02048624649252581</v>
       </c>
       <c r="T6">
-        <v>0.01703426036276549</v>
+        <v>0.02048624649252581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H7">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I7">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J7">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N7">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q7">
-        <v>46.954632893532</v>
+        <v>77.388126218088</v>
       </c>
       <c r="R7">
-        <v>422.591696041788</v>
+        <v>696.4931359627921</v>
       </c>
       <c r="S7">
-        <v>0.02753462827008747</v>
+        <v>0.03059980775088537</v>
       </c>
       <c r="T7">
-        <v>0.02753462827008747</v>
+        <v>0.03059980775088537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H8">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I8">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J8">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N8">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q8">
-        <v>34.33779485142088</v>
+        <v>7.937576524130779</v>
       </c>
       <c r="R8">
-        <v>309.0401536627879</v>
+        <v>71.43818871717701</v>
       </c>
       <c r="S8">
-        <v>0.02013599848586266</v>
+        <v>0.003138573415795823</v>
       </c>
       <c r="T8">
-        <v>0.02013599848586266</v>
+        <v>0.003138573415795823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H9">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I9">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J9">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N9">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q9">
-        <v>55.50451834792199</v>
+        <v>11.85616485357422</v>
       </c>
       <c r="R9">
-        <v>499.5406651312979</v>
+        <v>106.705483682168</v>
       </c>
       <c r="S9">
-        <v>0.03254835967913199</v>
+        <v>0.004688010718333925</v>
       </c>
       <c r="T9">
-        <v>0.03254835967913199</v>
+        <v>0.004688010718333925</v>
       </c>
     </row>
   </sheetData>
